--- a/pred_ohlcv/54_21/2019-10-29 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 TRX ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-3818717.947047601</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3818495.955705611</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2187865.087814118</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2122841.958614118</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2454965.461614118</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1941031.018914118</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1343125.836614118</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1363428.901214118</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1363428.901214118</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1128224.445014118</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>452465.1297141177</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-11704.35468588228</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-840455.8651858822</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-362276.1973858822</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-362276.1973858822</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>64152.8627141178</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>64152.8627141178</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>249788.6626141178</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-4101111.546719293</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-4101111.546719293</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-5377328.091519292</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-5377328.091519292</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-5377308.091519292</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5377308.091519292</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5377308.091519292</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5443869.411419293</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5435358.773219293</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5435358.773219293</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-5435358.773219293</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-5440645.433119293</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-5439396.963319293</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-5439396.963319293</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-5415441.921019293</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-5415441.921019293</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-5415441.921019293</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-3545574.153672851</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>8593786.45967358</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>10223163.95507358</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>11979020.75057358</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>11979020.75057358</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>12531430.95057358</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>12531430.95057358</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>12368754.34877358</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>12368889.76707358</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>12330946.92627358</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>12455193.64877358</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>12455193.64877358</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>12459637.79217358</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>12445915.25407358</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>11624281.05267358</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>11632269.37267358</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>10220208.64107358</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>10220208.64107358</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>10693281.81147358</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>10693281.81147358</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>10693281.81147358</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>10658996.18847358</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>10658996.18847358</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>10655100.94027358</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>10689300.94027358</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>11163300.35148424</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>11343198.03946624</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>11343198.03946624</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>11825303.08986624</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>11701169.98678338</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>11787611.37230449</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>10819805.65917581</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>10854134.54209612</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>10515890.76409611</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>10515890.76409611</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>10272668.29029611</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>10272668.29029611</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>10617728.73479611</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>9880151.125496114</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>9841655.314196113</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>9841655.314196113</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>9841655.314196113</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 TRX ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2923579.633334622</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2915024.339134622</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2822781.137634622</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2804515.439134622</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2804515.439134622</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2804515.439134622</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2804515.439134622</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2804415.439134622</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2187865.087814118</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2122841.958614118</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2515701.936314118</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2454965.461614118</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1941031.018914118</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1343125.836614118</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1363428.901214118</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1363428.901214118</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1335857.258714118</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1128224.445014118</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>452465.1297141177</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-11704.35468588228</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-840455.8651858822</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-424189.6394858822</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-447544.5744858822</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-362276.1973858822</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-362276.1973858822</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>64152.8627141178</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>64152.8627141178</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>249788.6626141178</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-4101111.546719293</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-4101111.546719293</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-5377328.091519292</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-5377328.091519292</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-5377308.091519292</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5377308.091519292</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-5377308.091519292</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-5443869.411419293</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-5435358.773219293</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-5435358.773219293</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-5435358.773219293</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-5440645.433119293</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-5439396.963319293</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-5439396.963319293</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-5415441.921019293</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-5415441.921019293</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-5415441.921019293</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-3545574.153672851</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>10152512.1255961</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>9385871.278073579</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>8593786.45967358</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>10282376.66967358</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>10282376.66967358</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>9807832.55497358</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>10223163.95507358</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>9900487.40937358</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>11979020.75057358</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>11979020.75057358</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>11979020.75057358</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>12531430.95057358</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>12531430.95057358</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>12442232.95057358</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>12368754.34877358</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>12368889.76707358</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>12330946.92627358</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>12455193.64877358</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>12455193.64877358</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>12459637.79217358</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>12445915.25407358</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>11624281.05267358</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>11632269.37267358</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>10220208.64107358</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>10220208.64107358</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>10693281.81147358</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>10693281.81147358</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>10658996.18847358</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>10658996.18847358</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>10655100.94027358</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>11163300.35148424</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>11163920.35148424</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>11129252.76888424</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>11319286.48576624</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>11343198.03946624</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>11343198.03946624</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>11248363.84696624</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>11825303.08986624</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>11701169.98678338</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>11787611.37230449</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>10819805.65917581</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>10854134.54209612</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>10515890.76409611</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>10515890.76409611</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>10272668.29029611</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>10272668.29029611</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>10617728.73479611</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>10520350.12129611</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>9880151.125496114</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>9841655.314196113</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
